--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513C48A-B35A-459B-9D41-C33CDE176CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4C30E-A5D1-4783-B371-E70CDA2C3E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="285" windowWidth="14685" windowHeight="15480" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
+    <workbookView xWindow="7995" yWindow="1200" windowWidth="18690" windowHeight="14445" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>Price</t>
   </si>
@@ -253,6 +253,36 @@
   </si>
   <si>
     <t>figure out a discount rate</t>
+  </si>
+  <si>
+    <t>P/e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEG </t>
+  </si>
+  <si>
+    <t>P/E divided by EPS growth rate</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>R/D of Revenue</t>
   </si>
 </sst>
 </file>
@@ -731,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD408D-00DF-49A4-8539-35C15A6A169F}">
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,6 +829,12 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -942,6 +978,9 @@
       <c r="C24" s="7">
         <f>Model!I5/Model!I8</f>
         <v>6.775186977562693E-2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -998,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840EDB9-4F77-4717-B90B-F4BF71763D31}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1131,23 @@
       </c>
       <c r="J3" s="3">
         <f>J8*0.52</f>
-        <v>3900</v>
+        <v>3143.2128000000002</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:N3" si="0">K8*0.52</f>
+        <v>2789.0408000000002</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>2973.5160000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>3474.9623999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>3080.3485439999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1104,7 +1159,23 @@
       </c>
       <c r="J4" s="3">
         <f>J8*0.28</f>
-        <v>2100</v>
+        <v>1692.4992000000002</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:N4" si="1">K8*0.28</f>
+        <v>1501.7912000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>1601.1240000000003</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>1871.1336000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>1658.649216</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1116,7 +1187,23 @@
       </c>
       <c r="J5" s="3">
         <f>J8*0.07</f>
-        <v>525</v>
+        <v>423.12480000000005</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:N5" si="2">K8*0.07</f>
+        <v>375.44780000000003</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="2"/>
+        <v>400.28100000000006</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="2"/>
+        <v>467.78340000000003</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>414.66230400000001</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1128,7 +1215,23 @@
       </c>
       <c r="J6" s="3">
         <f>J8*0.14</f>
-        <v>1050</v>
+        <v>846.2496000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:N6" si="3">K8*0.14</f>
+        <v>750.89560000000006</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="3"/>
+        <v>800.56200000000013</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>935.56680000000006</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="3"/>
+        <v>829.32460800000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1141,6 +1244,18 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1169,9 +1284,25 @@
         <v>6819</v>
       </c>
       <c r="J8" s="6">
-        <v>7500</v>
-      </c>
-      <c r="K8" s="6"/>
+        <f>+F8*0.98</f>
+        <v>6044.64</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ref="K8:N8" si="4">+G8*0.98</f>
+        <v>5363.54</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="4"/>
+        <v>5718.3</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>6682.62</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="4"/>
+        <v>5923.7471999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -1206,45 +1337,77 @@
         <v>3400</v>
       </c>
       <c r="J9" s="3">
-        <f>3167+233</f>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+        <f>+J8-J10</f>
+        <v>3022.32</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" ref="K9:N9" si="5">+K8-K10</f>
+        <v>2681.77</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>2859.15</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="5"/>
+        <v>3341.31</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="5"/>
+        <v>2961.8735999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10" si="0">C8-C9</f>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10" si="6">C8-C9</f>
         <v>2359</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10" si="1">D8-D9</f>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10" si="7">D8-D9</f>
         <v>2443</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <f>E8-E9</f>
         <v>2747</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <f>10460-(SUM(C10:E10))</f>
         <v>2911</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" ref="G10" si="2">G8-G9</f>
+      <c r="G10" s="6">
+        <f t="shared" ref="G10" si="8">G8-G9</f>
         <v>2560</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <f>H8-H9</f>
         <v>2864</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <f>I8-I9</f>
         <v>3419</v>
       </c>
-      <c r="J10" s="3">
-        <f>J8-J9</f>
-        <v>4100</v>
+      <c r="J10" s="6">
+        <f>+J8*0.5</f>
+        <v>3022.32</v>
+      </c>
+      <c r="K10" s="6">
+        <f>+K8*0.5</f>
+        <v>2681.77</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" ref="L10:N10" si="9">+L8*0.5</f>
+        <v>2859.15</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="9"/>
+        <v>3341.31</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="9"/>
+        <v>2961.8735999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1276,6 +1439,22 @@
       <c r="J11" s="3">
         <v>1636</v>
       </c>
+      <c r="K11" s="3">
+        <f>+AVERAGE(F11:I11)</f>
+        <v>1563.75</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" ref="L11:N11" si="10">+AVERAGE(G11:J11)</f>
+        <v>1595</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="10"/>
+        <v>1604.6875</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="10"/>
+        <v>1607.6875</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -1306,6 +1485,22 @@
       <c r="J12" s="3">
         <v>721</v>
       </c>
+      <c r="K12" s="3">
+        <f>+J12*1.01</f>
+        <v>728.21</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12:N12" si="11">+K12*1.01</f>
+        <v>735.49210000000005</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="11"/>
+        <v>742.84702100000004</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="11"/>
+        <v>750.27549121000004</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1334,7 +1529,24 @@
         <v>352</v>
       </c>
       <c r="J13" s="3">
-        <v>352</v>
+        <f t="shared" ref="J13:N13" si="12">+I13*1.01</f>
+        <v>355.52</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="12"/>
+        <v>359.0752</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="12"/>
+        <v>362.665952</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="12"/>
+        <v>366.29261151999998</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="12"/>
+        <v>369.95553763519996</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1342,36 +1554,52 @@
         <v>50</v>
       </c>
       <c r="C14" s="3">
-        <f>+SUM(C11:C13)</f>
+        <f t="shared" ref="C14:I14" si="13">+SUM(C11:C13)</f>
         <v>2514</v>
       </c>
       <c r="D14" s="3">
-        <f>+SUM(D11:D13)</f>
+        <f t="shared" si="13"/>
         <v>2471</v>
       </c>
       <c r="E14" s="3">
-        <f>+SUM(E11:E13)</f>
+        <f t="shared" si="13"/>
         <v>2533</v>
       </c>
       <c r="F14" s="3">
-        <f>+SUM(F11:F13)</f>
+        <f t="shared" si="13"/>
         <v>2575</v>
       </c>
       <c r="G14" s="3">
-        <f>+SUM(G11:G13)</f>
+        <f t="shared" si="13"/>
         <v>2537</v>
       </c>
       <c r="H14" s="3">
-        <f>+SUM(H11:H13)</f>
+        <f t="shared" si="13"/>
         <v>2605</v>
       </c>
       <c r="I14" s="3">
-        <f>+SUM(I11:I13)</f>
+        <f t="shared" si="13"/>
         <v>2709</v>
       </c>
       <c r="J14" s="3">
-        <f>+SUM(J11:J13)</f>
-        <v>2709</v>
+        <f t="shared" ref="J14:N14" si="14">+I14*1.01</f>
+        <v>2736.09</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="14"/>
+        <v>2763.4509000000003</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="14"/>
+        <v>2791.0854090000003</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="14"/>
+        <v>2818.9962630900004</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="14"/>
+        <v>2847.1862257209004</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1379,36 +1607,52 @@
         <v>49</v>
       </c>
       <c r="C15" s="3">
-        <f>C10-C14</f>
+        <f t="shared" ref="C15:I15" si="15">C10-C14</f>
         <v>-155</v>
       </c>
       <c r="D15" s="3">
-        <f>D10-D14</f>
+        <f t="shared" si="15"/>
         <v>-28</v>
       </c>
       <c r="E15" s="3">
-        <f>E10-E14</f>
+        <f t="shared" si="15"/>
         <v>214</v>
       </c>
       <c r="F15" s="3">
-        <f>F10-F14</f>
+        <f t="shared" si="15"/>
         <v>336</v>
       </c>
       <c r="G15" s="3">
-        <f>G10-G14</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="H15" s="3">
-        <f>H10-H14</f>
+        <f t="shared" si="15"/>
         <v>259</v>
       </c>
       <c r="I15" s="3">
-        <f>I10-I14</f>
+        <f t="shared" si="15"/>
         <v>710</v>
       </c>
       <c r="J15" s="3">
-        <f>J10-J14</f>
-        <v>1391</v>
+        <f t="shared" ref="J15:N15" si="16">+I15*1.01</f>
+        <v>717.1</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="16"/>
+        <v>724.27100000000007</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="16"/>
+        <v>731.51371000000006</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="16"/>
+        <v>738.82884710000008</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="16"/>
+        <v>746.21713557100009</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1438,10 +1682,27 @@
         <v>-23</v>
       </c>
       <c r="J16" s="3">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J16:N16" si="17">+I16*1.01</f>
+        <v>-23.23</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="17"/>
+        <v>-23.462299999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="17"/>
+        <v>-23.696922999999998</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="17"/>
+        <v>-23.933892229999998</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="17"/>
+        <v>-24.173231152299998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1468,47 +1729,80 @@
         <v>36</v>
       </c>
       <c r="J17" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J17:N17" si="18">+I17*1.01</f>
+        <v>36.36</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="18"/>
+        <v>36.723599999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="18"/>
+        <v>37.090835999999996</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="18"/>
+        <v>37.461744359999997</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="18"/>
+        <v>37.836361803599999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="3">
-        <f>C15+C16+C17</f>
+        <f t="shared" ref="C18:I18" si="19">C15+C16+C17</f>
         <v>-137</v>
       </c>
       <c r="D18" s="3">
-        <f>D15+D16+D17</f>
+        <f t="shared" si="19"/>
         <v>-10</v>
       </c>
       <c r="E18" s="3">
-        <f>E15+E16+E17</f>
+        <f t="shared" si="19"/>
         <v>247</v>
       </c>
       <c r="F18" s="3">
-        <f>F15+F16+F17</f>
+        <f t="shared" si="19"/>
         <v>358</v>
       </c>
       <c r="G18" s="3">
-        <f>G15+G16+G17</f>
+        <f t="shared" si="19"/>
         <v>51</v>
       </c>
       <c r="H18" s="3">
-        <f>H15+H16+H17</f>
+        <f t="shared" si="19"/>
         <v>289</v>
       </c>
       <c r="I18" s="3">
-        <f>I15+I16+I17</f>
+        <f t="shared" si="19"/>
         <v>723</v>
       </c>
       <c r="J18" s="3">
-        <f>J15+J16+J17</f>
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J18:N18" si="20">+I18*1.01</f>
+        <v>730.23</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="20"/>
+        <v>737.53230000000008</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="20"/>
+        <v>744.90762300000006</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="20"/>
+        <v>752.35669923000012</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="20"/>
+        <v>759.88026622230018</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1535,47 +1829,80 @@
         <v>-27</v>
       </c>
       <c r="J19" s="3">
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J19:N19" si="21">+I19*1.01</f>
+        <v>-27.27</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="21"/>
+        <v>-27.5427</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="21"/>
+        <v>-27.818127</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="21"/>
+        <v>-28.096308270000002</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="21"/>
+        <v>-28.377271352700003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="6">
-        <f>C18-C19</f>
+        <f t="shared" ref="C20:J20" si="22">C18-C19</f>
         <v>-150</v>
       </c>
       <c r="D20" s="6">
-        <f>D18-D19</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="E20" s="6">
-        <f>E18-E19</f>
+        <f t="shared" si="22"/>
         <v>286</v>
       </c>
       <c r="F20" s="6">
-        <f>F18-F19</f>
+        <f t="shared" si="22"/>
         <v>655</v>
       </c>
       <c r="G20" s="6">
-        <f>G18-G19</f>
+        <f t="shared" si="22"/>
         <v>103</v>
       </c>
       <c r="H20" s="6">
-        <f>H18-H19</f>
+        <f t="shared" si="22"/>
         <v>248</v>
       </c>
       <c r="I20" s="6">
-        <f>I18-I19</f>
+        <f t="shared" si="22"/>
         <v>750</v>
       </c>
       <c r="J20" s="6">
-        <f>J18-J19</f>
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="22"/>
+        <v>757.5</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" ref="K20:N20" si="23">K18-K19</f>
+        <v>765.07500000000005</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="23"/>
+        <v>772.72575000000006</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="23"/>
+        <v>780.45300750000013</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="23"/>
+        <v>788.25753757500013</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1603,12 +1930,24 @@
       <c r="J21" s="3">
         <v>1620</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="3">
+        <v>1620</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1620</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1620</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
@@ -1617,15 +1956,35 @@
         <v>2.2417336073230043E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" ref="H23:I23" si="3">H8/D8-1</f>
+        <f t="shared" ref="H23:I23" si="24">H8/D8-1</f>
         <v>8.882254151894009E-2</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.17568965517241386</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="7">
+        <f t="shared" ref="J23" si="25">J8/F8-1</f>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" ref="K23" si="26">K8/G8-1</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" ref="L23" si="27">L8/H8-1</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" ref="M23" si="28">M8/I8-1</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23" si="29">N8/J8-1</f>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1634,93 +1993,143 @@
         <v>0.44068746497291239</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" ref="D24:I24" si="4">D10/D8</f>
+        <f t="shared" ref="D24:I24" si="30">D10/D8</f>
         <v>0.4558686322075014</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.4736206896551724</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.47195201037613488</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.46775077653937513</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.49083119108826051</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="30"/>
         <v>0.50139316615339491</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="8">
-        <f>C20/C21*10</f>
-        <v>-0.93109869646182497</v>
+        <f>C20/C21</f>
+        <v>-9.3109869646182494E-2</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:I25" si="5">D20/D21*10</f>
-        <v>8.034610630407911E-2</v>
+        <f t="shared" ref="D25:I25" si="31">D20/D21</f>
+        <v>8.034610630407911E-3</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="5"/>
-        <v>1.7698019801980198</v>
+        <f t="shared" si="31"/>
+        <v>0.17698019801980197</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="5"/>
-        <v>4.0582403965303593</v>
+        <f t="shared" si="31"/>
+        <v>0.40582403965303593</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="5"/>
-        <v>0.63698206555349413</v>
+        <f t="shared" si="31"/>
+        <v>6.3698206555349413E-2</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="5"/>
-        <v>1.5327564894932013</v>
+        <f t="shared" si="31"/>
+        <v>0.15327564894932014</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="5"/>
-        <v>4.6296296296296298</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>0.46296296296296297</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="7">
+        <f>+C11/C8</f>
+        <v>0.26359050999439565</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" ref="D26:I26" si="32">+D11/D8</f>
+        <v>0.26926665422653479</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="32"/>
+        <v>0.25982758620689655</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="32"/>
+        <v>0.24497405966277561</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="32"/>
+        <v>0.27864059930568247</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="32"/>
+        <v>0.27129391602399316</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="32"/>
+        <v>0.23991787652148408</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E28" s="7">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="O28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E29" s="7">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="O29" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="O30" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E31" s="7">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="O31" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E32" s="7">
         <v>0</v>
       </c>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE4C30E-A5D1-4783-B371-E70CDA2C3E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296EF5F-5532-405F-9472-7E734F86638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="1200" windowWidth="18690" windowHeight="14445" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
+    <workbookView xWindow="-1455" yWindow="1290" windowWidth="18690" windowHeight="14445" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
   <dimension ref="B2:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,12 +888,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I18" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I19" s="2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -924,7 +924,7 @@
         <v>222214</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I21" s="2" t="s">
         <v>3</v>
       </c>
@@ -935,8 +935,12 @@
       <c r="K21" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <f>+J21-J22</f>
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
@@ -955,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
@@ -971,7 +975,7 @@
         <v>219390</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -983,7 +987,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
@@ -991,7 +995,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1000,17 +1004,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>68</v>
       </c>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296EF5F-5532-405F-9472-7E734F86638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E472DC-ECE9-4DBA-BE21-85B6862361BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1455" yWindow="1290" windowWidth="18690" windowHeight="14445" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
+    <workbookView xWindow="10050" yWindow="1215" windowWidth="19515" windowHeight="14445" activeTab="1" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +369,8 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,7 +401,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -761,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD408D-00DF-49A4-8539-35C15A6A169F}">
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -921,7 +923,7 @@
       </c>
       <c r="J20" s="3">
         <f>J19*J18</f>
-        <v>222214</v>
+        <v>191396</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -972,7 +974,7 @@
       </c>
       <c r="J23" s="3">
         <f>J20-J21+J22</f>
-        <v>219390</v>
+        <v>188572</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -986,6 +988,7 @@
       <c r="I24" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
@@ -993,6 +996,9 @@
       </c>
       <c r="C25" s="7">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -1041,13 +1047,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840EDB9-4F77-4717-B90B-F4BF71763D31}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="CO27" sqref="CO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1059,10 +1065,12 @@
     <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
@@ -1125,8 +1133,71 @@
       <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="R2" s="2">
+        <f>+Q2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" ref="S2:AF2" si="0">+R2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="Z2" s="2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AA2" s="2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AB2" s="2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AE2" s="2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1135,26 +1206,26 @@
       </c>
       <c r="J3" s="3">
         <f>J8*0.52</f>
-        <v>3143.2128000000002</v>
+        <v>3900</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:N3" si="0">K8*0.52</f>
+        <f t="shared" ref="K3:N3" si="1">K8*0.52</f>
         <v>2789.0408000000002</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2973.5160000000001</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3474.9623999999999</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>3080.3485439999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1163,26 +1234,26 @@
       </c>
       <c r="J4" s="3">
         <f>J8*0.28</f>
-        <v>1692.4992000000002</v>
+        <v>2100</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:N4" si="1">K8*0.28</f>
+        <f t="shared" ref="K4:N4" si="2">K8*0.28</f>
         <v>1501.7912000000001</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1601.1240000000003</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1871.1336000000001</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="1"/>
-        <v>1658.649216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>63</v>
       </c>
@@ -1191,26 +1262,26 @@
       </c>
       <c r="J5" s="3">
         <f>J8*0.07</f>
-        <v>423.12480000000005</v>
+        <v>525</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:N5" si="2">K8*0.07</f>
+        <f t="shared" ref="K5:N5" si="3">K8*0.07</f>
         <v>375.44780000000003</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400.28100000000006</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>467.78340000000003</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="2"/>
-        <v>414.66230400000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>514.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
@@ -1219,26 +1290,26 @@
       </c>
       <c r="J6" s="3">
         <f>J8*0.14</f>
-        <v>846.2496000000001</v>
+        <v>1050</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" ref="K6:N6" si="3">K8*0.14</f>
+        <f t="shared" ref="K6:N6" si="4">K8*0.14</f>
         <v>750.89560000000006</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>800.56200000000013</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>935.56680000000006</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="3"/>
-        <v>829.32460800000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1261,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,27 +1359,34 @@
         <v>6819</v>
       </c>
       <c r="J8" s="6">
-        <f>+F8*0.98</f>
-        <v>6044.64</v>
+        <v>7500</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8:N8" si="4">+G8*0.98</f>
+        <f t="shared" ref="K8:N8" si="5">+G8*0.98</f>
         <v>5363.54</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5718.3</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6682.62</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="4"/>
-        <v>5923.7471999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>7350</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>+SUM(G8:J8)</f>
+        <v>25627</v>
+      </c>
+      <c r="R8" s="6">
+        <f>+SUM(K8:N8)</f>
+        <v>25114.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1342,35 +1420,43 @@
       </c>
       <c r="J9" s="3">
         <f>+J8-J10</f>
-        <v>3022.32</v>
+        <v>3750</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" ref="K9:N9" si="5">+K8-K10</f>
+        <f t="shared" ref="K9:N9" si="6">+K8-K10</f>
         <v>2681.77</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2859.15</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3341.31</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="5"/>
-        <v>2961.8735999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>3675</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>+SUM(G9:J9)</f>
+        <v>13034</v>
+      </c>
+      <c r="R9" s="3">
+        <f>+SUM(K9:N9)</f>
+        <v>12557.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" ref="C10" si="6">C8-C9</f>
+        <f t="shared" ref="C10" si="7">C8-C9</f>
         <v>2359</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" ref="D10" si="7">D8-D9</f>
+        <f t="shared" ref="D10" si="8">D8-D9</f>
         <v>2443</v>
       </c>
       <c r="E10" s="6">
@@ -1382,7 +1468,7 @@
         <v>2911</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" ref="G10" si="8">G8-G9</f>
+        <f t="shared" ref="G10" si="9">G8-G9</f>
         <v>2560</v>
       </c>
       <c r="H10" s="6">
@@ -1395,26 +1481,34 @@
       </c>
       <c r="J10" s="6">
         <f>+J8*0.5</f>
-        <v>3022.32</v>
+        <v>3750</v>
       </c>
       <c r="K10" s="6">
         <f>+K8*0.5</f>
         <v>2681.77</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" ref="L10:N10" si="9">+L8*0.5</f>
+        <f t="shared" ref="L10:N10" si="10">+L8*0.5</f>
         <v>2859.15</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3341.31</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="9"/>
-        <v>2961.8735999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>3675</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>+Q8-Q9</f>
+        <v>12593</v>
+      </c>
+      <c r="R10" s="6">
+        <f>+R8-R9</f>
+        <v>12557.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1448,19 +1542,27 @@
         <v>1563.75</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" ref="L11:N11" si="10">+AVERAGE(G11:J11)</f>
+        <f t="shared" ref="L11:N11" si="11">+AVERAGE(G11:J11)</f>
         <v>1595</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1604.6875</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1607.6875</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3">
+        <f>+SUM(G11:J11)</f>
+        <v>6380</v>
+      </c>
+      <c r="R11" s="3">
+        <f>+SUM(K11:N11)</f>
+        <v>6371.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1494,19 +1596,27 @@
         <v>728.21</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" ref="L12:N12" si="11">+K12*1.01</f>
+        <f t="shared" ref="L12:N12" si="12">+K12*1.01</f>
         <v>735.49210000000005</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>742.84702100000004</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>750.27549121000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <f>+SUM(G12:J12)</f>
+        <v>2712</v>
+      </c>
+      <c r="R12" s="3">
+        <f>+SUM(K12:N12)</f>
+        <v>2956.8246122099999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1533,133 +1643,157 @@
         <v>352</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:N13" si="12">+I13*1.01</f>
+        <f t="shared" ref="J13:N13" si="13">+I13*1.01</f>
         <v>355.52</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>359.0752</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>362.665952</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>366.29261151999998</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>369.95553763519996</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <f>+SUM(G13:J13)</f>
+        <v>1471.52</v>
+      </c>
+      <c r="R13" s="3">
+        <f>+SUM(K13:N13)</f>
+        <v>1457.9893011552001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ref="C14:I14" si="13">+SUM(C11:C13)</f>
+        <f t="shared" ref="C14:I14" si="14">+SUM(C11:C13)</f>
         <v>2514</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2471</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2533</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2575</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2537</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2605</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2709</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:N14" si="14">+I14*1.01</f>
+        <f t="shared" ref="J14:N14" si="15">+I14*1.01</f>
         <v>2736.09</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2763.4509000000003</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2791.0854090000003</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2818.9962630900004</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2847.1862257209004</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <f>+Q13+Q12+Q11</f>
+        <v>10563.52</v>
+      </c>
+      <c r="R14" s="3">
+        <f>+R13+R12+R11</f>
+        <v>10785.9389133652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:I15" si="15">C10-C14</f>
+        <f t="shared" ref="C15:I15" si="16">C10-C14</f>
         <v>-155</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-28</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>214</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>336</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>259</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>710</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:N15" si="16">+I15*1.01</f>
+        <f t="shared" ref="J15:N15" si="17">+I15*1.01</f>
         <v>717.1</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>724.27100000000007</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>731.51371000000006</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>738.82884710000008</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>746.21713557100009</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <f>+Q10-Q14</f>
+        <v>2029.4799999999996</v>
+      </c>
+      <c r="R15" s="3">
+        <f>+R10-R14</f>
+        <v>1771.2910866347993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1686,27 +1820,35 @@
         <v>-23</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:N16" si="17">+I16*1.01</f>
+        <f t="shared" ref="J16:N16" si="18">+I16*1.01</f>
         <v>-23.23</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-23.462299999999999</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-23.696922999999998</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-23.933892229999998</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-24.173231152299998</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3">
+        <f>+SUM(G16:J16)</f>
+        <v>-96.23</v>
+      </c>
+      <c r="R16" s="3">
+        <f>+SUM(K16:N16)</f>
+        <v>-95.266346382299986</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1733,80 +1875,96 @@
         <v>36</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:N17" si="18">+I17*1.01</f>
+        <f t="shared" ref="J17:N17" si="19">+I17*1.01</f>
         <v>36.36</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36.723599999999998</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.090835999999996</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.461744359999997</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.836361803599999</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <f>+SUM(G17:J17)</f>
+        <v>180.36</v>
+      </c>
+      <c r="R17" s="3">
+        <f>+SUM(K17:N17)</f>
+        <v>149.11254216359998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:I18" si="19">C15+C16+C17</f>
+        <f t="shared" ref="C18:I18" si="20">C15+C16+C17</f>
         <v>-137</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-10</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>247</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>358</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>289</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>723</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:N18" si="20">+I18*1.01</f>
+        <f t="shared" ref="J18:N18" si="21">+I18*1.01</f>
         <v>730.23</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>737.53230000000008</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>744.90762300000006</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>752.35669923000012</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>759.88026622230018</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <f>+Q15+Q16+Q17</f>
+        <v>2113.6099999999997</v>
+      </c>
+      <c r="R18" s="3">
+        <f>+R15+R16+R17</f>
+        <v>1825.1372824160992</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1833,64 +1991,72 @@
         <v>-27</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19:N19" si="21">+I19*1.01</f>
+        <f t="shared" ref="J19:N19" si="22">+I19*1.01</f>
         <v>-27.27</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-27.5427</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-27.818127</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-28.096308270000002</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-28.377271352700003</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="3">
+        <f>+SUM(G19:J19)</f>
+        <v>-65.27</v>
+      </c>
+      <c r="R19" s="3">
+        <f>+SUM(K19:N19)</f>
+        <v>-111.83440662270002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:J20" si="22">C18-C19</f>
+        <f t="shared" ref="C20:N20" si="23">C18-C19</f>
         <v>-150</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>286</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>655</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>103</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>248</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>750</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>757.5</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ref="K20:N20" si="23">K18-K19</f>
+        <f t="shared" si="23"/>
         <v>765.07500000000005</v>
       </c>
       <c r="L20" s="6">
@@ -1905,236 +2071,279 @@
         <f t="shared" si="23"/>
         <v>788.25753757500013</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="Q20" s="6">
+        <f>+Q18-Q19</f>
+        <v>2178.8799999999997</v>
+      </c>
+      <c r="R20" s="6">
+        <f>+R18-R19</f>
+        <v>1936.9716890387992</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="Q21" s="10">
+        <f>+Q20/Q22</f>
+        <v>1.3449876543209875</v>
+      </c>
+      <c r="R21" s="10">
+        <f>+R20/R22</f>
+        <v>1.1956615364437033</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>1611</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>1618</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>1616</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>1614</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>1617</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <v>1618</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I22" s="3">
         <v>1620</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="3">
         <v>1620</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K22" s="3">
         <v>1620</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L22" s="3">
         <v>1620</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M22" s="3">
         <v>1620</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N22" s="3">
         <v>1620</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+      <c r="Q22" s="2">
+        <v>1620</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="7">
-        <f>G8/C8-1</f>
+      <c r="G24" s="7">
+        <f t="shared" ref="G24:N24" si="24">G8/C8-1</f>
         <v>2.2417336073230043E-2</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" ref="H23:I23" si="24">H8/D8-1</f>
+      <c r="H24" s="7">
+        <f t="shared" si="24"/>
         <v>8.882254151894009E-2</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I24" s="7">
         <f t="shared" si="24"/>
         <v>0.17568965517241386</v>
       </c>
-      <c r="J23" s="7">
-        <f t="shared" ref="J23" si="25">J8/F8-1</f>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" ref="K23" si="26">K8/G8-1</f>
+      <c r="J24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.21595330739299601</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="24"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="L23" s="7">
-        <f t="shared" ref="L23" si="27">L8/H8-1</f>
+      <c r="L24" s="7">
+        <f t="shared" si="24"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M23" s="7">
-        <f t="shared" ref="M23" si="28">M8/I8-1</f>
+      <c r="M24" s="7">
+        <f t="shared" si="24"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" ref="N23" si="29">N8/J8-1</f>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="N24" s="7">
+        <f t="shared" si="24"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="7">
-        <f>C10/C8</f>
+      <c r="C25" s="7">
+        <f t="shared" ref="C25:I25" si="25">C10/C8</f>
         <v>0.44068746497291239</v>
       </c>
-      <c r="D24" s="7">
-        <f t="shared" ref="D24:I24" si="30">D10/D8</f>
+      <c r="D25" s="7">
+        <f t="shared" si="25"/>
         <v>0.4558686322075014</v>
       </c>
-      <c r="E24" s="7">
-        <f t="shared" si="30"/>
+      <c r="E25" s="7">
+        <f t="shared" si="25"/>
         <v>0.4736206896551724</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="30"/>
+      <c r="F25" s="7">
+        <f t="shared" si="25"/>
         <v>0.47195201037613488</v>
       </c>
-      <c r="G24" s="7">
-        <f t="shared" si="30"/>
+      <c r="G25" s="7">
+        <f t="shared" si="25"/>
         <v>0.46775077653937513</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" si="30"/>
+      <c r="H25" s="7">
+        <f t="shared" si="25"/>
         <v>0.49083119108826051</v>
       </c>
-      <c r="I24" s="7">
-        <f t="shared" si="30"/>
+      <c r="I25" s="7">
+        <f t="shared" si="25"/>
         <v>0.50139316615339491</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="8">
-        <f>C20/C21</f>
+      <c r="C26" s="8">
+        <f t="shared" ref="C26:I26" si="26">C20/C22</f>
         <v>-9.3109869646182494E-2</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" ref="D25:I25" si="31">D20/D21</f>
+      <c r="D26" s="8">
+        <f t="shared" si="26"/>
         <v>8.034610630407911E-3</v>
       </c>
-      <c r="E25" s="8">
-        <f t="shared" si="31"/>
+      <c r="E26" s="8">
+        <f t="shared" si="26"/>
         <v>0.17698019801980197</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="31"/>
+      <c r="F26" s="8">
+        <f t="shared" si="26"/>
         <v>0.40582403965303593</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" si="31"/>
+      <c r="G26" s="8">
+        <f t="shared" si="26"/>
         <v>6.3698206555349413E-2</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="31"/>
+      <c r="H26" s="8">
+        <f t="shared" si="26"/>
         <v>0.15327564894932014</v>
       </c>
-      <c r="I25" s="8">
-        <f t="shared" si="31"/>
+      <c r="I26" s="8">
+        <f t="shared" si="26"/>
         <v>0.46296296296296297</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="7">
         <f>+C11/C8</f>
         <v>0.26359050999439565</v>
       </c>
-      <c r="D26" s="7">
-        <f t="shared" ref="D26:I26" si="32">+D11/D8</f>
+      <c r="D27" s="7">
+        <f t="shared" ref="D27:I27" si="27">+D11/D8</f>
         <v>0.26926665422653479</v>
       </c>
-      <c r="E26" s="7">
-        <f t="shared" si="32"/>
+      <c r="E27" s="7">
+        <f t="shared" si="27"/>
         <v>0.25982758620689655</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" si="32"/>
+      <c r="F27" s="7">
+        <f t="shared" si="27"/>
         <v>0.24497405966277561</v>
       </c>
-      <c r="G26" s="7">
-        <f t="shared" si="32"/>
+      <c r="G27" s="7">
+        <f t="shared" si="27"/>
         <v>0.27864059930568247</v>
       </c>
-      <c r="H26" s="7">
-        <f t="shared" si="32"/>
+      <c r="H27" s="7">
+        <f t="shared" si="27"/>
         <v>0.27129391602399316</v>
       </c>
-      <c r="I26" s="7">
-        <f t="shared" si="32"/>
+      <c r="I27" s="7">
+        <f t="shared" si="27"/>
         <v>0.23991787652148408</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="7">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="O28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E28" s="7">
+      <c r="P28" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E29" s="7">
         <v>0.52</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E29" s="7">
+      <c r="P29" s="11">
+        <f>+NPV(P28,Q20:CW20)</f>
+        <v>3678.1225043199574</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E30" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E30" s="7">
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E31" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E31" s="7">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E32" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E32" s="7">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="7">
         <v>0</v>
       </c>
     </row>

--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E472DC-ECE9-4DBA-BE21-85B6862361BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47AA920-E9FE-45B7-8D21-1126AB566AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="1215" windowWidth="19515" windowHeight="14445" activeTab="1" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
+    <workbookView xWindow="9915" yWindow="2145" windowWidth="18630" windowHeight="11940" activeTab="2" xr2:uid="{43FCD743-58A8-48E0-B806-0075CD1B8A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Products" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Price</t>
   </si>
@@ -283,13 +284,25 @@
   </si>
   <si>
     <t>R/D of Revenue</t>
+  </si>
+  <si>
+    <t>Radeon RX 9070 XT</t>
+  </si>
+  <si>
+    <t>GDDR6</t>
+  </si>
+  <si>
+    <t>GHz</t>
+  </si>
+  <si>
+    <t>Radeon RX 9070</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +349,13 @@
       <family val="2"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -358,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,6 +391,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD408D-00DF-49A4-8539-35C15A6A169F}">
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840EDB9-4F77-4717-B90B-F4BF71763D31}">
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2354,4 +2376,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00B3D1E-96A4-45B7-BC41-DB71018EF69F}">
+  <dimension ref="B3:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="12">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{46B7F44C-4ADD-4913-943F-6073A5746AA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>